--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Abdulrahman\WorkStudy\Courses\Playwright\Nopcommerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Abdulrahman\WorkStudy\Courses\Playwright\Automation Eaxercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ADFD39-1857-4A79-8080-27E40CBAD5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09164529-BCDA-4F63-B144-8C252C1224B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>put all error messages in one file</t>
   </si>
   <si>
     <t>user data in one file</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>verify on some thing from another page</t>
+  </si>
+  <si>
+    <t>wait for the appearance of this page</t>
+  </si>
+  <si>
+    <t>solution</t>
   </si>
 </sst>
 </file>
@@ -46,12 +58,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,22 +367,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Abdulrahman\WorkStudy\Courses\Playwright\Automation Eaxercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09164529-BCDA-4F63-B144-8C252C1224B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4AE28-5B00-466C-B1FE-DE4AD5542F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>put all error messages in one file</t>
   </si>
@@ -43,16 +43,48 @@
   </si>
   <si>
     <t>solution</t>
+  </si>
+  <si>
+    <t>messages file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applied on register_login page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | apply on regesteration page</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,13 +402,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="48.21875" customWidth="1"/>
+    <col min="2" max="2" width="61.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -388,6 +420,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
